--- a/pred_ohlcv/54_21/2020-01-19 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 PPT ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>12644.6025</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>15926.3839</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>25331.36</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>70143.63511616</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>89864.09811616001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>93529.48761616001</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>110220.47791616</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>109862.34381616</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>86577.98021616002</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>140527.87141616</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>136927.87141616</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>132926.31351616</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>125469.45181616</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>106400.51751616</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>106400.51751616</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>98267.58451616</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>97819.32341616</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>97819.32341616</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>102100.40241616</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>102100.40241616</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>108686.09761616</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>114079.16731616</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>115739.60221616</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>115739.60221616</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>114477.14591616</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>114477.14591616</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>114523.57011616</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>114523.57011616</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 PPT ohlcv.xlsx
@@ -1120,7 +1120,7 @@
         <v>11434.7343</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>12062.7712</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>15926.3839</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>15926.3839</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>15926.3839</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>15926.3839</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>15926.3839</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>15926.3839</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>15926.3839</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>17311.5376</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>18502.7375</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>25331.36</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>70143.63511616</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>89864.09811616001</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>93529.48761616001</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>110220.47791616</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>112101.39491616</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>109921.90691616</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>109862.34381616</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>105278.25601616</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>86577.98021616002</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>99543.99461616002</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>133855.51061616</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>133625.51171616</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>130613.66581616</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>130838.87751616</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>140527.87141616</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>136927.87141616</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>132926.31351616</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>125469.45181616</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>106400.51751616</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>106400.51751616</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>98267.58451616</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>97819.32341616</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>97819.32341616</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>102100.40241616</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>102100.40241616</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>108686.09761616</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>114079.16731616</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
